--- a/files/risk management.xlsx
+++ b/files/risk management.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D046890-568F-42A2-B1B0-82A6438C1AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bened\OneDrive\Dokumente\VSCode\decksterous\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31A9FE2-3632-4F99-B579-98A65F4B3799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -60,9 +65,6 @@
     <t>bad time estimation of certain tasks</t>
   </si>
   <si>
-    <t>30-60%</t>
-  </si>
-  <si>
     <t>improved scheduling</t>
   </si>
   <si>
@@ -75,9 +77,6 @@
     <t>problems during implementation of logic and technology</t>
   </si>
   <si>
-    <t>60-90%</t>
-  </si>
-  <si>
     <t>detailed planning</t>
   </si>
   <si>
@@ -151,13 +150,19 @@
   </si>
   <si>
     <t>feedback, brainstorming</t>
+  </si>
+  <si>
+    <t>40-80%</t>
+  </si>
+  <si>
+    <t>60-70%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,7 +211,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -504,11 +509,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.7109375" customWidth="1"/>
@@ -519,7 +524,7 @@
     <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -550,156 +555,180 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2">
         <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="F7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="F7" t="s">
+      <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="E8" t="s">
+      <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
         <v>37</v>
       </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
